--- a/schoolwork/UseCaseAllocation.xlsx
+++ b/schoolwork/UseCaseAllocation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sebastian/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajrobinson/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3F0F77-0861-854C-BEE2-60D531721316}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9541F881-30A1-3443-BAFA-2792079EB49D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4780" yWindow="2400" windowWidth="28040" windowHeight="17440" xr2:uid="{39673AE3-FEE1-374E-86B3-EBA37C3D3889}"/>
+    <workbookView xWindow="560" yWindow="3400" windowWidth="28040" windowHeight="16300" xr2:uid="{39673AE3-FEE1-374E-86B3-EBA37C3D3889}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Member</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>RemoveUser</t>
+  </si>
+  <si>
+    <t>RemoveMessage</t>
+  </si>
+  <si>
+    <t>DeleteMessage</t>
   </si>
 </sst>
 </file>
@@ -444,7 +450,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -478,6 +484,12 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
